--- a/Process Workflows/Credit_Report_Processing/CreditReportMasterFile.xlsx
+++ b/Process Workflows/Credit_Report_Processing/CreditReportMasterFile.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admrpad2\Desktop\GT_Order_Process_11 process\GT_Order_Process\Process Workflows\Credit_Report_Processing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admrpad2\Desktop\GT_Order_11 process_InputTracker\GT_Order_Process\Process Workflows\Credit_Report_Processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>Name</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>PDP</t>
+  </si>
+  <si>
+    <t>CreditSheetName</t>
   </si>
 </sst>
 </file>
@@ -479,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,17 +664,25 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>32</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>24</v>
       </c>
     </row>
